--- a/20. Daily Car Balance/Daily Car Balance.xlsx
+++ b/20. Daily Car Balance/Daily Car Balance.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Opening Balance Unit</t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
   <si>
     <t>Total Delivery Unit</t>
@@ -43,12 +40,21 @@
   <si>
     <t>Import Unit</t>
   </si>
+  <si>
+    <t>Delivery Unit</t>
+  </si>
+  <si>
+    <t>2024/708</t>
+  </si>
+  <si>
+    <t>Remarks / Rotation No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +75,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -84,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -107,11 +119,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -124,6 +188,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,211 +484,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="0.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45540</v>
       </c>
       <c r="B2" s="1">
         <v>2141</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>140</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>SUM(D2:E2)</f>
+        <v>141</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45543</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(B2-C2-D2+E2)</f>
+        <f>SUM(B2-F2+G2)</f>
         <v>2000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>87</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F17" si="0">SUM(D3:E3)</f>
+        <v>87</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45544</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM(B3-C3-D3+E3)</f>
+        <f t="shared" ref="B4:B17" si="1">SUM(B3-F3+G3)</f>
         <v>1913</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>111</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45545</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B17" si="0">SUM(B4-C4-D4+E4)</f>
+        <f t="shared" si="1"/>
         <v>1802</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45546</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1741</v>
+      </c>
+      <c r="D6" s="1">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45547</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1658</v>
+      </c>
+      <c r="D7" s="1">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45548</v>
+        <v>45550</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1555</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45549</v>
+        <v>45552</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1509</v>
+      </c>
+      <c r="D9" s="1">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>487</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45552</v>
+        <v>45557</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45557</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>1802</v>
+        <f t="shared" si="1"/>
+        <v>1927</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/20. Daily Car Balance/Daily Car Balance.xlsx
+++ b/20. Daily Car Balance/Daily Car Balance.xlsx
@@ -82,7 +82,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -203,6 +215,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +743,17 @@
         <f t="shared" si="1"/>
         <v>1927</v>
       </c>
+      <c r="D10" s="1">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -726,10 +763,19 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1853</v>
+      </c>
+      <c r="D11" s="1">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -739,10 +785,19 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1771</v>
+      </c>
+      <c r="D12" s="1">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -752,10 +807,19 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1706</v>
+      </c>
+      <c r="D13" s="1">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -765,47 +829,798 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1641</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1599</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1558</v>
+      </c>
+      <c r="D16" s="1">
+        <v>103</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45564</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>1455</v>
+      </c>
+      <c r="D17" s="1">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:B28" si="2">SUM(B17-F17+G17)</f>
+        <v>1372</v>
+      </c>
+      <c r="D18" s="1">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F19" si="3">SUM(D18:E18)</f>
+        <v>97</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>1267</v>
+      </c>
+      <c r="D20" s="1">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:F28" si="4">SUM(D20:E20)</f>
+        <v>56</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>1211</v>
+      </c>
+      <c r="D21" s="1">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>45569</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>45570</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="D24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>1070</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>1057</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45574</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>1016</v>
+      </c>
+      <c r="D27" s="1">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>45575</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" si="2"/>
+        <v>954</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>45576</v>
+      </c>
+      <c r="B29" s="13">
+        <f t="shared" ref="B29:B49" si="5">SUM(B28-F28+G28)</f>
+        <v>954</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" ref="F29:F49" si="6">SUM(D29:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>45577</v>
+      </c>
+      <c r="B30" s="13">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>45578</v>
+      </c>
+      <c r="B31" s="13">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45579</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45580</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45582</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>45583</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>45584</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>45590</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>45591</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>954</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>0</v>
       </c>
     </row>
